--- a/Dépenses.xlsx
+++ b/Dépenses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Désignation</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>siham</t>
+  </si>
+  <si>
+    <t>hicham</t>
   </si>
 </sst>
 </file>
@@ -1131,32 +1134,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,7 +1858,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="149">
+      <c r="N3" s="140">
         <f>897.98-L8+O8</f>
         <v>59473.98</v>
       </c>
-      <c r="O3" s="143"/>
+      <c r="O3" s="141"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2002,16 +2005,16 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
       <c r="I4" s="16"/>
       <c r="J4" s="1"/>
       <c r="K4" s="17" t="s">
@@ -2131,7 +2134,9 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -2318,16 +2323,16 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
       <c r="I11" s="44"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2753,16 +2758,16 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="73"/>
       <c r="J21" s="1"/>
       <c r="L21" s="31"/>
@@ -3019,14 +3024,14 @@
         <v>450</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="140">
+      <c r="K26" s="144">
         <v>42856</v>
       </c>
-      <c r="L26" s="141"/>
-      <c r="M26" s="140">
+      <c r="L26" s="145"/>
+      <c r="M26" s="144">
         <v>42887</v>
       </c>
-      <c r="N26" s="141"/>
+      <c r="N26" s="145"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -3329,11 +3334,11 @@
       </c>
       <c r="L32" s="115"/>
       <c r="M32" s="115"/>
-      <c r="N32" s="142">
+      <c r="N32" s="148">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O32" s="143"/>
+      <c r="O32" s="141"/>
       <c r="P32" s="31"/>
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
@@ -3426,16 +3431,16 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
       <c r="I35" s="73"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3530,10 +3535,10 @@
         <v>558</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="144" t="s">
+      <c r="K37" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="143"/>
+      <c r="L37" s="141"/>
       <c r="M37" s="125">
         <f>+I19-L17</f>
         <v>2783.08</v>
@@ -29667,15 +29672,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="A22:A23 I22 A30">
     <cfRule type="expression" dxfId="29" priority="1">
@@ -29907,17 +29912,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -30205,17 +30210,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="44"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -30650,17 +30655,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
       <c r="J21" s="73"/>
       <c r="K21" s="1"/>
       <c r="L21" s="31"/>
@@ -30962,14 +30967,14 @@
         <v>675</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="140">
+      <c r="L26" s="144">
         <v>42826</v>
       </c>
-      <c r="M26" s="141"/>
-      <c r="N26" s="140">
+      <c r="M26" s="145"/>
+      <c r="N26" s="144">
         <v>42856</v>
       </c>
-      <c r="O26" s="141"/>
+      <c r="O26" s="145"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
@@ -31397,17 +31402,17 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
       <c r="J35" s="73"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -31506,10 +31511,10 @@
         <v>400</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="144" t="s">
+      <c r="L37" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="143"/>
+      <c r="M37" s="141"/>
       <c r="N37" s="125">
         <f>+J19-L23</f>
         <v>47.5</v>

--- a/Dépenses.xlsx
+++ b/Dépenses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Désignation</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>siham</t>
-  </si>
-  <si>
-    <t>hicham</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1131,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,20 +1157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1858,7 +1855,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1988,7 +1985,7 @@
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="140">
+      <c r="N3" s="147">
         <f>897.98-L8+O8</f>
         <v>59473.98</v>
       </c>
@@ -2005,16 +2002,16 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="16"/>
       <c r="J4" s="1"/>
       <c r="K4" s="17" t="s">
@@ -2134,9 +2131,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -2323,16 +2318,16 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="44"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2758,16 +2753,16 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
       <c r="I21" s="73"/>
       <c r="J21" s="1"/>
       <c r="L21" s="31"/>
@@ -3024,14 +3019,14 @@
         <v>450</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="144">
+      <c r="K26" s="150">
         <v>42856</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="144">
+      <c r="L26" s="151"/>
+      <c r="M26" s="150">
         <v>42887</v>
       </c>
-      <c r="N26" s="145"/>
+      <c r="N26" s="151"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -3334,7 +3329,7 @@
       </c>
       <c r="L32" s="115"/>
       <c r="M32" s="115"/>
-      <c r="N32" s="148">
+      <c r="N32" s="140">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3431,16 +3426,16 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
       <c r="I35" s="73"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3535,7 +3530,7 @@
         <v>558</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="149" t="s">
+      <c r="K37" s="142" t="s">
         <v>60</v>
       </c>
       <c r="L37" s="141"/>
@@ -29912,17 +29907,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -30210,17 +30205,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
       <c r="J11" s="44"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -30655,17 +30650,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
       <c r="J21" s="73"/>
       <c r="K21" s="1"/>
       <c r="L21" s="31"/>
@@ -30967,14 +30962,14 @@
         <v>675</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="144">
+      <c r="L26" s="150">
         <v>42826</v>
       </c>
-      <c r="M26" s="145"/>
-      <c r="N26" s="144">
+      <c r="M26" s="151"/>
+      <c r="N26" s="150">
         <v>42856</v>
       </c>
-      <c r="O26" s="145"/>
+      <c r="O26" s="151"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
@@ -31402,17 +31397,17 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
       <c r="J35" s="73"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -31511,7 +31506,7 @@
         <v>400</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="149" t="s">
+      <c r="L37" s="142" t="s">
         <v>60</v>
       </c>
       <c r="M37" s="141"/>

--- a/Dépenses.xlsx
+++ b/Dépenses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Désignation</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Achat pompe voiture 3500 depuis compte carnet le 31/05/2017</t>
-  </si>
-  <si>
-    <t>siham</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1852,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2076,9 +2073,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
